--- a/backend/fms_core/static/submission_templates/Sample_submission_v4_3_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Sample_submission_v4_3_0.xlsx
@@ -10364,9 +10364,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1548720</xdr:colOff>
+      <xdr:colOff>1548360</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10381,7 +10381,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="76320" y="28440"/>
-          <a:ext cx="1472400" cy="531720"/>
+          <a:ext cx="1472040" cy="531360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10412,7 +10412,9 @@
   <dimension ref="A1:AK502"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <pane xSplit="0" ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10492,7 +10494,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -10680,7 +10682,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="str">
         <f aca="false">IF(SampleSubmission!A10="","",IF(SampleSubmission!C$6="","",SampleSubmission!C$6))</f>
@@ -10803,7 +10805,7 @@
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="str">
         <f aca="false">IF(SampleSubmission!A13="","",IF(SampleSubmission!C$6="","",SampleSubmission!C$6))</f>
@@ -31046,7 +31048,9 @@
   <dimension ref="A1:K500"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38721,7 +38725,9 @@
   <dimension ref="A1:S501"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
